--- a/tests/data.gui/test/spectrophotometry/dsl.7/kev.constants.data.xlsx
+++ b/tests/data.gui/test/spectrophotometry/dsl.7/kev.constants.data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t xml:space="preserve">H</t>
   </si>
@@ -209,10 +209,13 @@
     <t xml:space="preserve">8.609375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.23310964999603</t>
+    <t xml:space="preserve">0.233109650001495</t>
   </si>
   <si>
     <t xml:space="preserve">Adj. R^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.991026</t>
   </si>
 </sst>
 </file>
@@ -756,8 +759,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0.99102591254974</v>
+      <c r="A2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -837,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8931.48796934943</v>
+        <v>8931.48796934942</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -849,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>8143.44057412933</v>
+        <v>8143.44057412934</v>
       </c>
     </row>
     <row r="4">
@@ -863,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6254.79900171554</v>
+        <v>6254.79900171553</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -889,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>177.13334131273</v>
+        <v>177.133341312731</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -927,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>546.155582811758</v>
+        <v>546.155582811759</v>
       </c>
     </row>
     <row r="7">
@@ -1576,202 +1579,202 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.00000009950508e-12</v>
+        <v>0.00000000000100000009950508</v>
       </c>
       <c r="B2" t="n">
-        <v>9.88361548273814e-05</v>
+        <v>0.0000988361548273814</v>
       </c>
       <c r="C2" t="n">
-        <v>9.95050908670138e-23</v>
+        <v>0.0000000000000000000000995050908670138</v>
       </c>
       <c r="D2" t="n">
-        <v>9.95050809657523e-20</v>
+        <v>0.0000000000000000000995050809657523</v>
       </c>
       <c r="E2" t="n">
-        <v>3.84517261854957e-09</v>
+        <v>0.00000000384517261854957</v>
       </c>
       <c r="F2" t="n">
-        <v>3.95413946163757e-22</v>
+        <v>0.000000000000000000000395413946163757</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.32821497082841e-08</v>
+        <v>0.0000000532821497082841</v>
       </c>
       <c r="B3" t="n">
-        <v>8.28012093493909e-05</v>
+        <v>0.0000828012093493909</v>
       </c>
       <c r="C3" t="n">
-        <v>2.83893419541522e-06</v>
+        <v>0.00000283893419541522</v>
       </c>
       <c r="D3" t="n">
-        <v>5.32811497088271e-08</v>
+        <v>0.0000000532811497088271</v>
       </c>
       <c r="E3" t="n">
-        <v>3.22134084970355e-09</v>
+        <v>0.00000000322134084970355</v>
       </c>
       <c r="F3" t="n">
-        <v>7.9177846548843e-06</v>
+        <v>0.0000079177846548843</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8.48486504990988e-08</v>
+        <v>0.0000000848486504990988</v>
       </c>
       <c r="B4" t="n">
-        <v>6.9965390625285e-05</v>
+        <v>0.000069965390625285</v>
       </c>
       <c r="C4" t="n">
-        <v>7.19920864731814e-06</v>
+        <v>0.00000719920864731814</v>
       </c>
       <c r="D4" t="n">
-        <v>8.484765055155e-08</v>
+        <v>0.00000008484765055155</v>
       </c>
       <c r="E4" t="n">
-        <v>2.72196955403955e-09</v>
+        <v>0.00000000272196955403955</v>
       </c>
       <c r="F4" t="n">
-        <v>1.43359437027963e-05</v>
+        <v>0.0000143359437027963</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.14338233593199e-07</v>
+        <v>0.000000114338233593199</v>
       </c>
       <c r="B5" t="n">
-        <v>6.01525689892313e-05</v>
+        <v>0.0000601525689892313</v>
       </c>
       <c r="C5" t="n">
-        <v>1.30731173679725e-05</v>
+        <v>0.0000130731173679725</v>
       </c>
       <c r="D5" t="n">
-        <v>1.14337233986708e-07</v>
+        <v>0.000000114337233986708</v>
       </c>
       <c r="E5" t="n">
-        <v>2.34020649241939e-09</v>
+        <v>0.00000000234020649241939</v>
       </c>
       <c r="F5" t="n">
-        <v>1.92425454030121e-05</v>
+        <v>0.0000192425454030121</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.42084475803837e-07</v>
+        <v>0.000000142084475803837</v>
       </c>
       <c r="B6" t="n">
-        <v>5.28178248133184e-05</v>
+        <v>0.0000528178248133184</v>
       </c>
       <c r="C6" t="n">
-        <v>2.01878563718048e-05</v>
+        <v>0.0000201878563718048</v>
       </c>
       <c r="D6" t="n">
-        <v>1.42083477153946e-07</v>
+        <v>0.000000142083477153946</v>
       </c>
       <c r="E6" t="n">
-        <v>2.054851831278e-09</v>
+        <v>0.000000002054851831278</v>
       </c>
       <c r="F6" t="n">
-        <v>2.29100601692117e-05</v>
+        <v>0.0000229100601692117</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.92022759415063e-07</v>
+        <v>0.000000192022759415063</v>
       </c>
       <c r="B7" t="n">
-        <v>4.30474674726951e-05</v>
+        <v>0.0000430474674726951</v>
       </c>
       <c r="C7" t="n">
-        <v>3.68725494486994e-05</v>
+        <v>0.0000368725494486994</v>
       </c>
       <c r="D7" t="n">
-        <v>1.92021766383423e-07</v>
+        <v>0.000000192021766383423</v>
       </c>
       <c r="E7" t="n">
-        <v>1.67474082245512e-09</v>
+        <v>0.00000000167474082245512</v>
       </c>
       <c r="F7" t="n">
-        <v>2.77954288971744e-05</v>
+        <v>0.0000277954288971744</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.14437333786353e-07</v>
+        <v>0.000000214437333786353</v>
       </c>
       <c r="B8" t="n">
-        <v>3.96936397739203e-05</v>
+        <v>0.0000396936397739203</v>
       </c>
       <c r="C8" t="n">
-        <v>4.59831556840659e-05</v>
+        <v>0.0000459831556840659</v>
       </c>
       <c r="D8" t="n">
-        <v>2.14436333786353e-07</v>
+        <v>0.000000214436333786353</v>
       </c>
       <c r="E8" t="n">
-        <v>1.54426178411956e-09</v>
+        <v>0.00000000154426178411956</v>
       </c>
       <c r="F8" t="n">
-        <v>2.94724079821478e-05</v>
+        <v>0.0000294724079821478</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.35405839996937e-07</v>
+        <v>0.000000235405839996937</v>
       </c>
       <c r="B9" t="n">
-        <v>3.69807191607155e-05</v>
+        <v>0.0000369807191607155</v>
       </c>
       <c r="C9" t="n">
-        <v>5.54156740988232e-05</v>
+        <v>0.0000554156740988232</v>
       </c>
       <c r="D9" t="n">
-        <v>2.35404839996937e-07</v>
+        <v>0.000000235404839996937</v>
       </c>
       <c r="E9" t="n">
-        <v>1.43871692478734e-09</v>
+        <v>0.00000000143871692478734</v>
       </c>
       <c r="F9" t="n">
-        <v>3.08289210611798e-05</v>
+        <v>0.0000308289210611798</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.551176095479e-07</v>
+        <v>0.0000002551176095479</v>
       </c>
       <c r="B10" t="n">
-        <v>3.47383609076806e-05</v>
+        <v>0.0000347383609076806</v>
       </c>
       <c r="C10" t="n">
-        <v>6.50847395838252e-05</v>
+        <v>0.0000650847395838252</v>
       </c>
       <c r="D10" t="n">
-        <v>2.551166095479e-07</v>
+        <v>0.0000002551166095479</v>
       </c>
       <c r="E10" t="n">
-        <v>1.35147906561922e-09</v>
+        <v>0.00000000135147906561922</v>
       </c>
       <c r="F10" t="n">
-        <v>3.19501438066269e-05</v>
+        <v>0.0000319501438066269</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.7373764918513e-07</v>
+        <v>0.00000027373764918513</v>
       </c>
       <c r="B11" t="n">
-        <v>3.28502489628879e-05</v>
+        <v>0.0000328502489628879</v>
       </c>
       <c r="C11" t="n">
-        <v>7.49320268437524e-05</v>
+        <v>0.0000749320268437524</v>
       </c>
       <c r="D11" t="n">
-        <v>2.73736649185131e-07</v>
+        <v>0.000000273736649185131</v>
       </c>
       <c r="E11" t="n">
-        <v>1.27802298708649e-09</v>
+        <v>0.00000000127802298708649</v>
       </c>
       <c r="F11" t="n">
-        <v>3.28942365070625e-05</v>
+        <v>0.0000328942365070625</v>
       </c>
     </row>
   </sheetData>
@@ -1834,13 +1837,13 @@
         <v>299</v>
       </c>
       <c r="C2" t="n">
-        <v>0.997625114396463</v>
+        <v>0.997625114396461</v>
       </c>
       <c r="D2" t="n">
         <v>1.08901097484999</v>
       </c>
       <c r="E2" t="n">
-        <v>1.16472471772574</v>
+        <v>1.16472471772573</v>
       </c>
       <c r="F2" t="n">
         <v>1.2226069198985</v>
@@ -1872,7 +1875,7 @@
         <v>329</v>
       </c>
       <c r="C3" t="n">
-        <v>0.882753927777515</v>
+        <v>0.882753927777514</v>
       </c>
       <c r="D3" t="n">
         <v>0.804016013967471</v>
@@ -1910,16 +1913,16 @@
         <v>414</v>
       </c>
       <c r="C4" t="n">
-        <v>0.618200282547708</v>
+        <v>0.618200282547707</v>
       </c>
       <c r="D4" t="n">
-        <v>0.772185798569689</v>
+        <v>0.772185798569688</v>
       </c>
       <c r="E4" t="n">
-        <v>0.898020501452682</v>
+        <v>0.898020501452681</v>
       </c>
       <c r="F4" t="n">
-        <v>0.994219545842609</v>
+        <v>0.994219545842608</v>
       </c>
       <c r="G4" t="n">
         <v>1.06612499840964</v>
@@ -1948,34 +1951,34 @@
         <v>299</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0433748856035369</v>
+        <v>-0.0433748856035386</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0320109748499888</v>
+        <v>0.0320109748499875</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0267247177257364</v>
+        <v>0.026724717725735</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0206069198984968</v>
+        <v>0.0206069198984957</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00187186051943233</v>
+        <v>0.00187186051943145</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0184964184187788</v>
+        <v>-0.0184964184187797</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0167134305272174</v>
+        <v>-0.0167134305272183</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.0067109161456167</v>
+        <v>-0.00671091614561758</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.000484074925769296</v>
+        <v>-0.000484074925770184</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00465319846275203</v>
+        <v>0.00465319846275136</v>
       </c>
     </row>
     <row r="6">
@@ -1986,34 +1989,34 @@
         <v>329</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0482460722224854</v>
+        <v>-0.0482460722224862</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0120160139674711</v>
+        <v>0.0120160139674707</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0226389502583522</v>
+        <v>0.0226389502583517</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0379524712371951</v>
+        <v>0.0379524712371948</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0353084804250619</v>
+        <v>0.0353084804250616</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0108283612999135</v>
+        <v>0.0108283612999133</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.00246993092042502</v>
+        <v>-0.00246993092042513</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.0126536650919378</v>
+        <v>-0.0126536650919379</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0225506500539793</v>
+        <v>-0.0225506500539794</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0327261363712146</v>
+        <v>-0.0327261363712147</v>
       </c>
     </row>
     <row r="7">
@@ -2024,34 +2027,34 @@
         <v>414</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0337997174522919</v>
+        <v>-0.033799717452293</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0131857985696895</v>
+        <v>0.0131857985696885</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0120205014526816</v>
+        <v>0.0120205014526807</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0592195458426087</v>
+        <v>0.0592195458426079</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.00487500159036269</v>
+        <v>-0.00487500159036336</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.021092251750833</v>
+        <v>-0.0210922517508336</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0202133275915639</v>
+        <v>-0.0202133275915646</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.00961747370589006</v>
+        <v>-0.00961747370589072</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.00163473224018285</v>
+        <v>-0.00163473224018329</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00687518992970437</v>
+        <v>0.00687518992970371</v>
       </c>
     </row>
   </sheetData>
@@ -2114,13 +2117,13 @@
         <v>299</v>
       </c>
       <c r="C2" t="n">
-        <v>0.997625114396463</v>
+        <v>0.997625114396461</v>
       </c>
       <c r="D2" t="n">
         <v>1.08901097484999</v>
       </c>
       <c r="E2" t="n">
-        <v>1.16472471772574</v>
+        <v>1.16472471772573</v>
       </c>
       <c r="F2" t="n">
         <v>1.2226069198985</v>
@@ -2152,7 +2155,7 @@
         <v>329</v>
       </c>
       <c r="C3" t="n">
-        <v>0.882753927777515</v>
+        <v>0.882753927777514</v>
       </c>
       <c r="D3" t="n">
         <v>0.804016013967471</v>
@@ -2190,16 +2193,16 @@
         <v>414</v>
       </c>
       <c r="C4" t="n">
-        <v>0.618200282547708</v>
+        <v>0.618200282547707</v>
       </c>
       <c r="D4" t="n">
-        <v>0.772185798569689</v>
+        <v>0.772185798569688</v>
       </c>
       <c r="E4" t="n">
-        <v>0.898020501452682</v>
+        <v>0.898020501452681</v>
       </c>
       <c r="F4" t="n">
-        <v>0.994219545842609</v>
+        <v>0.994219545842608</v>
       </c>
       <c r="G4" t="n">
         <v>1.06612499840964</v>
@@ -2228,34 +2231,34 @@
         <v>299</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0416665567757319</v>
+        <v>-0.0416665567757336</v>
       </c>
       <c r="D5" t="n">
-        <v>0.030284744418154</v>
+        <v>0.0302847444181528</v>
       </c>
       <c r="E5" t="n">
-        <v>0.023483934732633</v>
+        <v>0.0234839347326318</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0171438601484999</v>
+        <v>0.0171438601484989</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00148090230967748</v>
+        <v>0.00148090230967678</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.01378272609447</v>
+        <v>-0.0137827260944707</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0122892871523657</v>
+        <v>-0.0122892871523664</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.00491282294701076</v>
+        <v>-0.00491282294701141</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.000352567316656443</v>
+        <v>-0.000352567316657089</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00337432810931982</v>
+        <v>0.00337432810931933</v>
       </c>
     </row>
     <row r="6">
@@ -2266,34 +2269,34 @@
         <v>329</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0518217746750649</v>
+        <v>-0.0518217746750658</v>
       </c>
       <c r="D6" t="n">
-        <v>0.015171734807413</v>
+        <v>0.0151717348074124</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0314867180227429</v>
+        <v>0.0314867180227423</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0578543768859682</v>
+        <v>0.0578543768859677</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0566749284511426</v>
+        <v>0.0566749284511423</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0180472688331892</v>
+        <v>0.0180472688331888</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.00413723772265498</v>
+        <v>-0.00413723772265517</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.0213024664847437</v>
+        <v>-0.0213024664847439</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0380280776626969</v>
+        <v>-0.0380280776626971</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0550945056754454</v>
+        <v>-0.0550945056754456</v>
       </c>
     </row>
     <row r="7">
@@ -2304,34 +2307,34 @@
         <v>414</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0518400574421655</v>
+        <v>-0.0518400574421672</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0173725936359545</v>
+        <v>0.0173725936359532</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0135671573958032</v>
+        <v>0.0135671573958022</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0633364126658916</v>
+        <v>0.0633364126658908</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0045518222132238</v>
+        <v>-0.00455182221322443</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.01782946048253</v>
+        <v>-0.0178294604825305</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0166364836144559</v>
+        <v>-0.0166364836144564</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.00781273249869217</v>
+        <v>-0.00781273249869271</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.00131303794392196</v>
+        <v>-0.00131303794392232</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00547823898781225</v>
+        <v>0.00547823898781172</v>
       </c>
     </row>
   </sheetData>
